--- a/classfiers/bottleneck/svm/smote/bottleneck-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/bottleneck/svm/smote/bottleneck-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3217821782178218</v>
+        <v>0.5777027027027027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3023255813953488</v>
+        <v>0.7953488372093023</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3117505995203837</v>
+        <v>0.6692759295499021</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3704846772440774</v>
+        <v>0.755716603569497</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3190661478599222</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3831775700934579</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3481953290870488</v>
+        <v>0.7726269315673289</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1864159965224951</v>
+        <v>0.8997295835586804</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3689320388349515</v>
+        <v>0.9560439560439561</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3551401869158878</v>
+        <v>0.8093023255813954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3619047619047618</v>
+        <v>0.8765743073047859</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2839767665298279</v>
+        <v>0.9842942130881558</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3141592920353982</v>
+        <v>0.9935483870967742</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3317757009345794</v>
+        <v>0.7162790697674418</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3227272727272728</v>
+        <v>0.8324324324324324</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2887806795353306</v>
+        <v>0.9925797728501893</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3105022831050228</v>
+        <v>0.7095435684647303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3177570093457944</v>
+        <v>0.7953488372093023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3140877598152425</v>
+        <v>0.7500000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2822517250414884</v>
+        <v>0.871736073553272</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3268883880106233</v>
+        <v>0.7944265463910445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3380352097370137</v>
+        <v>0.786046511627907</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3317331446109419</v>
+        <v>0.7801819201708898</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2823819689746438</v>
+        <v>0.9008112493239588</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/svm/smote/bottleneck-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/bottleneck/svm/smote/bottleneck-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5777027027027027</v>
+        <v>0.8063241106719368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7953488372093023</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6692759295499021</v>
+        <v>0.8927789934354485</v>
       </c>
       <c r="E2" t="n">
-        <v>0.755716603569497</v>
+        <v>0.9242490099488071</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.9902439024390244</v>
       </c>
       <c r="C3" t="n">
-        <v>0.813953488372093</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7726269315673289</v>
+        <v>0.9950980392156863</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8997295835586804</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9560439560439561</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8093023255813954</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8765743073047859</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9842942130881558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9935483870967742</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7162790697674418</v>
+        <v>0.9802955665024631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8324324324324324</v>
+        <v>0.9900497512437811</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9925797728501893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7095435684647303</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7953488372093023</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7500000000000001</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.871736073553272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7944265463910445</v>
+        <v>0.9593136026221922</v>
       </c>
       <c r="C7" t="n">
-        <v>0.786046511627907</v>
+        <v>0.9960591133004926</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7801819201708898</v>
+        <v>0.9755853567789832</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9008112493239588</v>
+        <v>0.9848498019897616</v>
       </c>
     </row>
   </sheetData>
